--- a/2022/LION/Grishaging_diff_eps.xlsx
+++ b/2022/LION/Grishaging_diff_eps.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evgeniy.kozinov\Desktop\tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\ExaMinPapers\2022\LION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390CF8F6-2DEF-40BA-B930-DD25B498E0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797B716-572D-4ADF-8C33-94E7D4F27695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7035C7EF-2187-4EE4-A45F-0DDDC501C0FD}"/>
   </bookViews>
@@ -46,19 +46,19 @@
     <t>HV</t>
   </si>
   <si>
-    <t>alpha=0,01</t>
-  </si>
-  <si>
-    <t>alpha=0</t>
-  </si>
-  <si>
     <t>Itration</t>
   </si>
   <si>
-    <t>Number of iterations</t>
+    <t>Average value of HV index</t>
   </si>
   <si>
-    <t>HV (more is better)</t>
+    <t>ML_MGSA (alpha=0,01)</t>
+  </si>
+  <si>
+    <t>ML_MGSA (alpha=0)</t>
+  </si>
+  <si>
+    <t>Average number of iterations</t>
   </si>
 </sst>
 </file>
@@ -113,10 +113,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -141,10 +141,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -163,7 +163,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>alpha=0,01</c:v>
+                  <c:v>ML_MGSA (alpha=0,01)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -171,7 +171,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -182,11 +184,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -256,16 +262,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>alpha=0</c:v>
+                  <c:v>ML_MGSA (alpha=0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -275,11 +284,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -379,7 +392,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Number of iterations</c:v>
+                  <c:v>Average number of iterations</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -397,16 +410,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ru-RU"/>
@@ -435,16 +448,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -482,7 +495,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HV (more is better)</c:v>
+                  <c:v>Average value of HV index</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -500,16 +513,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ru-RU"/>
@@ -538,16 +551,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -580,16 +593,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -627,7 +640,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -641,41 +657,28 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -1200,16 +1203,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1536,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD70ABB-4767-46D3-8C5B-7C2E678B5351}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109"/>
+    <sheetView tabSelected="1" topLeftCell="E83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T95" sqref="T95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13938,32 +13941,32 @@
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
-      <c r="B103" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
+      <c r="B103" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>1</v>
@@ -13972,7 +13975,7 @@
         <v>2</v>
       </c>
       <c r="H104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:40" x14ac:dyDescent="0.3">
@@ -13983,11 +13986,11 @@
         <f>A102</f>
         <v>658.64</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="2">
         <f>C102</f>
         <v>1.5521061600000001</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="2">
         <f>D102</f>
         <v>91.854508139999993</v>
       </c>
@@ -13995,11 +13998,11 @@
         <f>E102</f>
         <v>1902.43</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="2">
         <f>G102</f>
         <v>1.3171784600000001</v>
       </c>
-      <c r="G105" s="3">
+      <c r="G105" s="2">
         <f>H102</f>
         <v>92.061659789999993</v>
       </c>
@@ -14012,11 +14015,11 @@
         <f>I102</f>
         <v>360.36</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="2">
         <f>K102</f>
         <v>1.6380089599999998</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="2">
         <f>L102</f>
         <v>90.471451099999996</v>
       </c>
@@ -14024,11 +14027,11 @@
         <f>M102</f>
         <v>678.19</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="2">
         <f>O102</f>
         <v>1.745015330000002</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G106" s="2">
         <f>P102</f>
         <v>90.671032719999943</v>
       </c>
@@ -14041,11 +14044,11 @@
         <f>Q102</f>
         <v>270.70999999999998</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="2">
         <f>S102</f>
         <v>2.0183386899999998</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="2">
         <f>T102</f>
         <v>89.200768129999958</v>
       </c>
@@ -14053,11 +14056,11 @@
         <f>U102</f>
         <v>387.39</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="2">
         <f>W102</f>
         <v>1.8860996300000001</v>
       </c>
-      <c r="G107" s="3">
+      <c r="G107" s="2">
         <f>X102</f>
         <v>88.850995350000034</v>
       </c>
@@ -14070,11 +14073,11 @@
         <f>Y102</f>
         <v>216.55</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="2">
         <f>AA102</f>
         <v>2.19248909</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="2">
         <f>AB102</f>
         <v>87.907348150000004</v>
       </c>
@@ -14082,11 +14085,11 @@
         <f>AC102</f>
         <v>265.94</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="2">
         <f>AE102</f>
         <v>2.0497778899999997</v>
       </c>
-      <c r="G108" s="3">
+      <c r="G108" s="2">
         <f>AF102</f>
         <v>86.740750979999987</v>
       </c>
@@ -14099,11 +14102,11 @@
         <f>AG102</f>
         <v>174.27</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="2">
         <f>AI102</f>
         <v>2.3098311000000007</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="2">
         <f>AJ102</f>
         <v>85.724078769999977</v>
       </c>
@@ -14111,11 +14114,11 @@
         <f>AK102</f>
         <v>188.65</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="2">
         <f>AM102</f>
         <v>2.4344349400000014</v>
       </c>
-      <c r="G109" s="3">
+      <c r="G109" s="2">
         <f>AN102</f>
         <v>83.874259789999982</v>
       </c>

--- a/2022/LION/Grishaging_diff_eps.xlsx
+++ b/2022/LION/Grishaging_diff_eps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\ExaMinPapers\2022\LION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797B716-572D-4ADF-8C33-94E7D4F27695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A725555-B4DA-416D-94AF-58BE7E3377C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7035C7EF-2187-4EE4-A45F-0DDDC501C0FD}"/>
   </bookViews>
@@ -52,13 +52,13 @@
     <t>Average value of HV index</t>
   </si>
   <si>
-    <t>ML_MGSA (alpha=0,01)</t>
-  </si>
-  <si>
     <t>ML_MGSA (alpha=0)</t>
   </si>
   <si>
     <t>Average number of iterations</t>
+  </si>
+  <si>
+    <t>ML_MGSA (alpha=0.01)</t>
   </si>
 </sst>
 </file>
@@ -110,13 +110,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -141,10 +142,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -163,7 +164,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ML_MGSA (alpha=0,01)</c:v>
+                  <c:v>ML_MGSA (alpha=0.01)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -171,9 +172,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="88500"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -184,15 +183,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="88500"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="88500"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -226,7 +221,7 @@
             <c:numRef>
               <c:f>Лист1!$D$105:$D$109</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>91.854508139999993</c:v>
@@ -268,13 +263,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="55000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -284,15 +276,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="55000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="55000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -410,7 +398,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -448,7 +436,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -471,6 +459,8 @@
         <c:axId val="1993434111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="94"/>
+          <c:min val="82"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -500,6 +490,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2382367508667657E-2"/>
+              <c:y val="0.14707967527868734"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -513,7 +511,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -529,7 +527,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -551,7 +549,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -569,6 +567,7 @@
         <c:crossAx val="1993436191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -593,7 +592,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -640,7 +639,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400">
+        <a:defRPr sz="1200">
           <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
@@ -657,28 +656,41 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
-  <a:schemeClr val="dk1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
   <cs:variation>
-    <a:tint val="88500"/>
+    <a:lumMod val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="55000"/>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="75000"/>
+    <a:lumMod val="80000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="98500"/>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="30000"/>
+    <a:lumMod val="50000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="60000"/>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="80000"/>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -1539,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD70ABB-4767-46D3-8C5B-7C2E678B5351}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T95" sqref="T95"/>
+    <sheetView tabSelected="1" topLeftCell="B81" zoomScale="89" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="P105" sqref="P105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13942,12 +13954,12 @@
     <row r="103" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -13975,7 +13987,7 @@
         <v>2</v>
       </c>
       <c r="H104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:40" x14ac:dyDescent="0.3">
@@ -13990,7 +14002,7 @@
         <f>C102</f>
         <v>1.5521061600000001</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="4">
         <f>D102</f>
         <v>91.854508139999993</v>
       </c>
@@ -14019,7 +14031,7 @@
         <f>K102</f>
         <v>1.6380089599999998</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="4">
         <f>L102</f>
         <v>90.471451099999996</v>
       </c>
@@ -14048,7 +14060,7 @@
         <f>S102</f>
         <v>2.0183386899999998</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="4">
         <f>T102</f>
         <v>89.200768129999958</v>
       </c>
@@ -14077,7 +14089,7 @@
         <f>AA102</f>
         <v>2.19248909</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="4">
         <f>AB102</f>
         <v>87.907348150000004</v>
       </c>
@@ -14106,7 +14118,7 @@
         <f>AI102</f>
         <v>2.3098311000000007</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="4">
         <f>AJ102</f>
         <v>85.724078769999977</v>
       </c>
